--- a/Labdata/Lab1/emp30_data_from_excel.XLSX
+++ b/Labdata/Lab1/emp30_data_from_excel.XLSX
@@ -21,33 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
-    <t>empno</t>
-  </si>
-  <si>
-    <t>ename</t>
-  </si>
-  <si>
-    <t>job</t>
-  </si>
-  <si>
-    <t>mgr</t>
-  </si>
-  <si>
-    <t>hiredate</t>
-  </si>
-  <si>
-    <t>sal</t>
-  </si>
-  <si>
-    <t>comm</t>
-  </si>
-  <si>
-    <t>deptno</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>MANAGER</t>
   </si>
   <si>
@@ -73,6 +46,33 @@
   </si>
   <si>
     <t>JAMES</t>
+  </si>
+  <si>
+    <t>EMPNO</t>
+  </si>
+  <si>
+    <t>ENAME</t>
+  </si>
+  <si>
+    <t>JOB</t>
+  </si>
+  <si>
+    <t>MGR</t>
+  </si>
+  <si>
+    <t>HIREDATE</t>
+  </si>
+  <si>
+    <t>SAL</t>
+  </si>
+  <si>
+    <t>COMM</t>
+  </si>
+  <si>
+    <t>DEPTNO</t>
+  </si>
+  <si>
+    <t>TEST</t>
   </si>
 </sst>
 </file>
@@ -394,38 +394,38 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -433,10 +433,10 @@
         <v>7499</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>7698</v>
@@ -462,10 +462,10 @@
         <v>7521</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <v>7698</v>
@@ -491,10 +491,10 @@
         <v>7654</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>7698</v>
@@ -520,10 +520,10 @@
         <v>7698</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>7839</v>
@@ -546,10 +546,10 @@
         <v>7844</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>7698</v>
@@ -575,10 +575,10 @@
         <v>7900</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>7698</v>
